--- a/자바조편성.xlsx
+++ b/자바조편성.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1차프로젝트" sheetId="1" r:id="rId1"/>
     <sheet name="2차웹프로젝트" sheetId="2" r:id="rId2"/>
+    <sheet name="파이날프로젝트" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>자바과제1차조편성</t>
   </si>
@@ -111,13 +112,21 @@
   </si>
   <si>
     <t>자바웹프로젝트조편성</t>
+  </si>
+  <si>
+    <t>파이날프로젝트조편성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,8 +163,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,11 +325,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,15 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -347,6 +399,32 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,12 +652,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -709,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -721,18 +799,18 @@
     <row r="1" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -755,84 +833,84 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -843,4 +921,148 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/자바조편성.xlsx
+++ b/자바조편성.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>자바과제1차조편성</t>
   </si>
@@ -119,6 +119,32 @@
   </si>
   <si>
     <t>박현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>복습팀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -353,11 +379,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -408,25 +447,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -652,12 +693,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -799,12 +840,12 @@
     <row r="1" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -925,50 +966,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G16"/>
+  <dimension ref="B5:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+    <row r="5" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -981,11 +1025,11 @@
       <c r="E10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -995,11 +1039,12 @@
       <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1057,9 @@
       <c r="E12" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1026,8 +1072,9 @@
       <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1040,8 +1087,9 @@
       <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
@@ -1049,13 +1097,15 @@
       <c r="D15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="22"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
